--- a/Excel Files/Food_Health_Inspection_SearchResult_Pages_URLs.xlsx
+++ b/Excel Files/Food_Health_Inspection_SearchResult_Pages_URLs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="7">
   <si>
     <t>URLLink</t>
   </si>
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B313" workbookViewId="0">
-      <selection activeCell="E364" sqref="E364"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -405,14 +405,14 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
         <f>A2&amp;B2&amp;D2</f>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=15</v>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -423,14 +423,14 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">A3&amp;B3&amp;D3</f>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=30</v>
+        <f>A2&amp;B2&amp;D3</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -441,14 +441,14 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=45</v>
+        <f>A3&amp;B3&amp;D4</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,14 +459,14 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=60</v>
+        <f>A4&amp;B4&amp;D5</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -477,14 +477,14 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=75</v>
+        <f>A5&amp;B5&amp;D6</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -495,14 +495,14 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=90</v>
+        <f>A6&amp;B6&amp;D7</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -513,14 +513,14 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=105</v>
+        <f>A7&amp;B7&amp;D8</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -531,14 +531,14 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=120</v>
+        <f>A8&amp;B8&amp;D9</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=105</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -549,14 +549,14 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=135</v>
+        <f>A9&amp;B9&amp;D10</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=120</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,14 +567,14 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=150</v>
+        <f>A10&amp;B10&amp;D11</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=135</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -585,14 +585,14 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=165</v>
+        <f>A11&amp;B11&amp;D12</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=150</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -603,14 +603,14 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=180</v>
+        <f>A12&amp;B12&amp;D13</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=165</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -621,14 +621,14 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=195</v>
+        <f>A13&amp;B13&amp;D14</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=180</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -639,14 +639,14 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=210</v>
+        <f>A14&amp;B14&amp;D15</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=195</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -657,14 +657,14 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=225</v>
+        <f>A15&amp;B15&amp;D16</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=210</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,14 +675,14 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=240</v>
+        <f>A16&amp;B16&amp;D17</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=225</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -693,14 +693,14 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=255</v>
+        <f>A17&amp;B17&amp;D18</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=240</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -711,14 +711,14 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=270</v>
+        <f>A18&amp;B18&amp;D19</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=255</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,14 +729,14 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=285</v>
+        <f>A19&amp;B19&amp;D20</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=270</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -747,14 +747,14 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=300</v>
+        <f>A20&amp;B20&amp;D21</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=285</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -765,14 +765,14 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=315</v>
+        <f>A21&amp;B21&amp;D22</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=300</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -783,14 +783,14 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=330</v>
+        <f>A22&amp;B22&amp;D23</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=315</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -801,14 +801,14 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=345</v>
+        <f>A23&amp;B23&amp;D24</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=330</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -819,14 +819,14 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=360</v>
+        <f>A24&amp;B24&amp;D25</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=345</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -837,14 +837,14 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=375</v>
+        <f>A25&amp;B25&amp;D26</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=360</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -855,14 +855,14 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=390</v>
+        <f>A26&amp;B26&amp;D27</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=375</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -873,14 +873,14 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=405</v>
+        <f>A27&amp;B27&amp;D28</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=390</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -891,14 +891,14 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=420</v>
+        <f>A28&amp;B28&amp;D29</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=405</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -909,14 +909,14 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=435</v>
+        <f>A29&amp;B29&amp;D30</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=420</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -927,14 +927,14 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=450</v>
+        <f>A30&amp;B30&amp;D31</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=435</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -945,14 +945,14 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=465</v>
+        <f>A31&amp;B31&amp;D32</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=450</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -963,14 +963,14 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=480</v>
+        <f>A32&amp;B32&amp;D33</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=465</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -981,14 +981,14 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=495</v>
+        <f>A33&amp;B33&amp;D34</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=480</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -999,14 +999,14 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=510</v>
+        <f>A34&amp;B34&amp;D35</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=495</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1017,14 +1017,14 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=525</v>
+        <f>A35&amp;B35&amp;D36</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=510</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1035,14 +1035,14 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=540</v>
+        <f>A36&amp;B36&amp;D37</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=525</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1053,14 +1053,14 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=555</v>
+        <f>A37&amp;B37&amp;D38</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=540</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1071,14 +1071,14 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=570</v>
+        <f>A38&amp;B38&amp;D39</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=555</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1089,14 +1089,14 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=585</v>
+        <f>A39&amp;B39&amp;D40</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=570</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1107,14 +1107,14 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=600</v>
+        <f>A40&amp;B40&amp;D41</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=585</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1125,14 +1125,14 @@
         <v>4</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=615</v>
+        <f>A41&amp;B41&amp;D42</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=600</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1143,14 +1143,14 @@
         <v>4</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=630</v>
+        <f>A42&amp;B42&amp;D43</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=615</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1161,14 +1161,14 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=645</v>
+        <f>A43&amp;B43&amp;D44</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=630</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1179,14 +1179,14 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=660</v>
+        <f>A44&amp;B44&amp;D45</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=645</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1197,14 +1197,14 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=675</v>
+        <f>A45&amp;B45&amp;D46</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=660</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1215,14 +1215,14 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=690</v>
+        <f>A46&amp;B46&amp;D47</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=675</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1233,14 +1233,14 @@
         <v>4</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=705</v>
+        <f>A47&amp;B47&amp;D48</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=690</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1251,14 +1251,14 @@
         <v>4</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=720</v>
+        <f>A48&amp;B48&amp;D49</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=705</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1269,14 +1269,14 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=735</v>
+        <f>A49&amp;B49&amp;D50</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=720</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1287,14 +1287,14 @@
         <v>4</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=750</v>
+        <f>A50&amp;B50&amp;D51</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=735</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1305,14 +1305,14 @@
         <v>4</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=765</v>
+        <f>A51&amp;B51&amp;D52</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=750</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1323,14 +1323,14 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=780</v>
+        <f>A52&amp;B52&amp;D53</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=765</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1341,14 +1341,14 @@
         <v>4</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=795</v>
+        <f>A53&amp;B53&amp;D54</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=780</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1359,14 +1359,14 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=810</v>
+        <f>A54&amp;B54&amp;D55</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=795</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1377,14 +1377,14 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=825</v>
+        <f>A55&amp;B55&amp;D56</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=810</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1395,14 +1395,14 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=840</v>
+        <f>A56&amp;B56&amp;D57</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=825</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1413,14 +1413,14 @@
         <v>4</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58">
-        <v>855</v>
+        <v>840</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=855</v>
+        <f>A57&amp;B57&amp;D58</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=840</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1431,14 +1431,14 @@
         <v>4</v>
       </c>
       <c r="C59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=870</v>
+        <f>A58&amp;B58&amp;D59</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=855</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1449,14 +1449,14 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=885</v>
+        <f>A59&amp;B59&amp;D60</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=870</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1467,14 +1467,14 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=900</v>
+        <f>A60&amp;B60&amp;D61</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=885</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1485,14 +1485,14 @@
         <v>4</v>
       </c>
       <c r="C62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=915</v>
+        <f>A61&amp;B61&amp;D62</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=900</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1503,14 +1503,14 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D63">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=930</v>
+        <f>A62&amp;B62&amp;D63</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=915</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1521,14 +1521,14 @@
         <v>4</v>
       </c>
       <c r="C64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=945</v>
+        <f>A63&amp;B63&amp;D64</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=930</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1539,14 +1539,14 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=960</v>
+        <f>A64&amp;B64&amp;D65</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=945</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1557,14 +1557,14 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=975</v>
+        <f>A65&amp;B65&amp;D66</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=960</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1575,14 +1575,14 @@
         <v>4</v>
       </c>
       <c r="C67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67">
-        <v>990</v>
+        <v>975</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="1">A67&amp;B67&amp;D67</f>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=990</v>
+        <f>A66&amp;B66&amp;D67</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=975</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1593,14 +1593,14 @@
         <v>4</v>
       </c>
       <c r="C68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1005</v>
+        <f>A67&amp;B67&amp;D68</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=990</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1611,14 +1611,14 @@
         <v>4</v>
       </c>
       <c r="C69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1020</v>
+        <f>A68&amp;B68&amp;D69</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1005</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1629,14 +1629,14 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1035</v>
+        <f>A69&amp;B69&amp;D70</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1020</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1647,14 +1647,14 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1050</v>
+        <f>A70&amp;B70&amp;D71</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1035</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1665,14 +1665,14 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1065</v>
+        <f>A71&amp;B71&amp;D72</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1050</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1683,14 +1683,14 @@
         <v>4</v>
       </c>
       <c r="C73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1080</v>
+        <f>A72&amp;B72&amp;D73</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1065</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1701,14 +1701,14 @@
         <v>4</v>
       </c>
       <c r="C74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74">
-        <v>1095</v>
+        <v>1080</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1095</v>
+        <f>A73&amp;B73&amp;D74</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1080</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1719,14 +1719,14 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1110</v>
+        <f>A74&amp;B74&amp;D75</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1095</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1737,14 +1737,14 @@
         <v>4</v>
       </c>
       <c r="C76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1125</v>
+        <f>A75&amp;B75&amp;D76</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1110</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1755,14 +1755,14 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1140</v>
+        <f>A76&amp;B76&amp;D77</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1125</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1773,14 +1773,14 @@
         <v>4</v>
       </c>
       <c r="C78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78">
-        <v>1155</v>
+        <v>1140</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1155</v>
+        <f>A77&amp;B77&amp;D78</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1140</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1791,14 +1791,14 @@
         <v>4</v>
       </c>
       <c r="C79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1170</v>
+        <f>A78&amp;B78&amp;D79</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1155</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1809,14 +1809,14 @@
         <v>4</v>
       </c>
       <c r="C80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80">
-        <v>1185</v>
+        <v>1170</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1185</v>
+        <f>A79&amp;B79&amp;D80</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1170</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1827,14 +1827,14 @@
         <v>4</v>
       </c>
       <c r="C81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81">
-        <v>1200</v>
+        <v>1185</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1200</v>
+        <f>A80&amp;B80&amp;D81</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1185</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1845,14 +1845,14 @@
         <v>4</v>
       </c>
       <c r="C82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D82">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1215</v>
+        <f>A81&amp;B81&amp;D82</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1200</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1863,14 +1863,14 @@
         <v>4</v>
       </c>
       <c r="C83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D83">
-        <v>1230</v>
+        <v>1215</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1230</v>
+        <f>A82&amp;B82&amp;D83</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1215</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1881,14 +1881,14 @@
         <v>4</v>
       </c>
       <c r="C84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D84">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1245</v>
+        <f>A83&amp;B83&amp;D84</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1230</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1899,14 +1899,14 @@
         <v>4</v>
       </c>
       <c r="C85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1260</v>
+        <f>A84&amp;B84&amp;D85</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1245</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,14 +1917,14 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1275</v>
+        <f>A85&amp;B85&amp;D86</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1260</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1935,14 +1935,14 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1290</v>
+        <f>A86&amp;B86&amp;D87</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1275</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1953,14 +1953,14 @@
         <v>4</v>
       </c>
       <c r="C88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88">
-        <v>1305</v>
+        <v>1290</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1305</v>
+        <f>A87&amp;B87&amp;D88</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1290</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1971,14 +1971,14 @@
         <v>4</v>
       </c>
       <c r="C89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1320</v>
+        <f>A88&amp;B88&amp;D89</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1305</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1989,14 +1989,14 @@
         <v>4</v>
       </c>
       <c r="C90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1335</v>
+        <f>A89&amp;B89&amp;D90</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1320</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2007,14 +2007,14 @@
         <v>4</v>
       </c>
       <c r="C91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D91">
-        <v>1350</v>
+        <v>1335</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1350</v>
+        <f>A90&amp;B90&amp;D91</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1335</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2025,14 +2025,14 @@
         <v>4</v>
       </c>
       <c r="C92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92">
-        <v>1365</v>
+        <v>1350</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1365</v>
+        <f>A91&amp;B91&amp;D92</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1350</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2043,14 +2043,14 @@
         <v>4</v>
       </c>
       <c r="C93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93">
-        <v>1380</v>
+        <v>1365</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1380</v>
+        <f>A92&amp;B92&amp;D93</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1365</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2061,14 +2061,14 @@
         <v>4</v>
       </c>
       <c r="C94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94">
-        <v>1395</v>
+        <v>1380</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1395</v>
+        <f>A93&amp;B93&amp;D94</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1380</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2079,14 +2079,14 @@
         <v>4</v>
       </c>
       <c r="C95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D95">
-        <v>1410</v>
+        <v>1395</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1410</v>
+        <f>A94&amp;B94&amp;D95</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1395</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2097,14 +2097,14 @@
         <v>4</v>
       </c>
       <c r="C96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D96">
-        <v>1425</v>
+        <v>1410</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1425</v>
+        <f>A95&amp;B95&amp;D96</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1410</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2115,14 +2115,14 @@
         <v>4</v>
       </c>
       <c r="C97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97">
-        <v>1440</v>
+        <v>1425</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1440</v>
+        <f>A96&amp;B96&amp;D97</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1425</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2133,14 +2133,14 @@
         <v>4</v>
       </c>
       <c r="C98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D98">
-        <v>1455</v>
+        <v>1440</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1455</v>
+        <f>A97&amp;B97&amp;D98</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1440</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2151,14 +2151,14 @@
         <v>4</v>
       </c>
       <c r="C99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D99">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1470</v>
+        <f>A98&amp;B98&amp;D99</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1455</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2169,14 +2169,14 @@
         <v>4</v>
       </c>
       <c r="C100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D100">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1485</v>
+        <f>A99&amp;B99&amp;D100</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1470</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2187,14 +2187,14 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D101">
-        <v>1500</v>
+        <v>1485</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1500</v>
+        <f>A100&amp;B100&amp;D101</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1485</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2205,14 +2205,14 @@
         <v>4</v>
       </c>
       <c r="C102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D102">
-        <v>1515</v>
+        <v>1500</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1515</v>
+        <f>A101&amp;B101&amp;D102</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1500</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2223,14 +2223,14 @@
         <v>4</v>
       </c>
       <c r="C103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D103">
-        <v>1530</v>
+        <v>1515</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1530</v>
+        <f>A102&amp;B102&amp;D103</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1515</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2241,14 +2241,14 @@
         <v>4</v>
       </c>
       <c r="C104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D104">
-        <v>1545</v>
+        <v>1530</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1545</v>
+        <f>A103&amp;B103&amp;D104</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1530</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2259,14 +2259,14 @@
         <v>4</v>
       </c>
       <c r="C105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105">
-        <v>1560</v>
+        <v>1545</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1560</v>
+        <f>A104&amp;B104&amp;D105</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1545</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2277,14 +2277,14 @@
         <v>4</v>
       </c>
       <c r="C106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D106">
-        <v>1575</v>
+        <v>1560</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1575</v>
+        <f>A105&amp;B105&amp;D106</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1560</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2295,14 +2295,14 @@
         <v>4</v>
       </c>
       <c r="C107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D107">
-        <v>1590</v>
+        <v>1575</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1590</v>
+        <f>A106&amp;B106&amp;D107</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1575</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2313,14 +2313,14 @@
         <v>4</v>
       </c>
       <c r="C108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D108">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1605</v>
+        <f>A107&amp;B107&amp;D108</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1590</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2331,14 +2331,14 @@
         <v>4</v>
       </c>
       <c r="C109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D109">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1620</v>
+        <f>A108&amp;B108&amp;D109</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1605</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2349,14 +2349,14 @@
         <v>4</v>
       </c>
       <c r="C110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D110">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1635</v>
+        <f>A109&amp;B109&amp;D110</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1620</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2367,14 +2367,14 @@
         <v>4</v>
       </c>
       <c r="C111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D111">
-        <v>1650</v>
+        <v>1635</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1650</v>
+        <f>A110&amp;B110&amp;D111</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1635</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2385,14 +2385,14 @@
         <v>4</v>
       </c>
       <c r="C112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D112">
-        <v>1665</v>
+        <v>1650</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1665</v>
+        <f>A111&amp;B111&amp;D112</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1650</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2403,14 +2403,14 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D113">
-        <v>1680</v>
+        <v>1665</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1680</v>
+        <f>A112&amp;B112&amp;D113</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1665</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2421,14 +2421,14 @@
         <v>4</v>
       </c>
       <c r="C114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D114">
-        <v>1695</v>
+        <v>1680</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1695</v>
+        <f>A113&amp;B113&amp;D114</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1680</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2439,14 +2439,14 @@
         <v>4</v>
       </c>
       <c r="C115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D115">
-        <v>1710</v>
+        <v>1695</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1710</v>
+        <f>A114&amp;B114&amp;D115</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1695</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2457,14 +2457,14 @@
         <v>4</v>
       </c>
       <c r="C116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D116">
-        <v>1725</v>
+        <v>1710</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1725</v>
+        <f>A115&amp;B115&amp;D116</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1710</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2475,14 +2475,14 @@
         <v>4</v>
       </c>
       <c r="C117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117">
-        <v>1740</v>
+        <v>1725</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1740</v>
+        <f>A116&amp;B116&amp;D117</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1725</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2493,14 +2493,14 @@
         <v>4</v>
       </c>
       <c r="C118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118">
-        <v>1755</v>
+        <v>1740</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1755</v>
+        <f>A117&amp;B117&amp;D118</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1740</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2511,14 +2511,14 @@
         <v>4</v>
       </c>
       <c r="C119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D119">
-        <v>1770</v>
+        <v>1755</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1770</v>
+        <f>A118&amp;B118&amp;D119</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1755</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2529,14 +2529,14 @@
         <v>4</v>
       </c>
       <c r="C120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120">
-        <v>1785</v>
+        <v>1770</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1785</v>
+        <f>A119&amp;B119&amp;D120</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1770</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2547,14 +2547,14 @@
         <v>4</v>
       </c>
       <c r="C121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D121">
-        <v>1800</v>
+        <v>1785</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1800</v>
+        <f>A120&amp;B120&amp;D121</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1785</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2565,14 +2565,14 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D122">
-        <v>1815</v>
+        <v>1800</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1815</v>
+        <f>A121&amp;B121&amp;D122</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1800</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2583,14 +2583,14 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D123">
-        <v>1830</v>
+        <v>1815</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1830</v>
+        <f>A122&amp;B122&amp;D123</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1815</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2601,14 +2601,14 @@
         <v>4</v>
       </c>
       <c r="C124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D124">
-        <v>1845</v>
+        <v>1830</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1845</v>
+        <f>A123&amp;B123&amp;D124</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1830</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2619,14 +2619,14 @@
         <v>4</v>
       </c>
       <c r="C125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D125">
-        <v>1860</v>
+        <v>1845</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1860</v>
+        <f>A124&amp;B124&amp;D125</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1845</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2637,14 +2637,14 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D126">
-        <v>1875</v>
+        <v>1860</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1875</v>
+        <f>A125&amp;B125&amp;D126</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1860</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2655,14 +2655,14 @@
         <v>4</v>
       </c>
       <c r="C127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D127">
-        <v>1890</v>
+        <v>1875</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1890</v>
+        <f>A126&amp;B126&amp;D127</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1875</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2673,14 +2673,14 @@
         <v>4</v>
       </c>
       <c r="C128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D128">
-        <v>1905</v>
+        <v>1890</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1905</v>
+        <f>A127&amp;B127&amp;D128</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1890</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2691,14 +2691,14 @@
         <v>4</v>
       </c>
       <c r="C129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D129">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1920</v>
+        <f>A128&amp;B128&amp;D129</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1905</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2709,14 +2709,14 @@
         <v>4</v>
       </c>
       <c r="C130">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D130">
-        <v>1935</v>
+        <v>1920</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" si="1"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1935</v>
+        <f>A129&amp;B129&amp;D130</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1920</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2727,14 +2727,14 @@
         <v>4</v>
       </c>
       <c r="C131">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D131">
-        <v>1950</v>
+        <v>1935</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" ref="E131:E194" si="2">A131&amp;B131&amp;D131</f>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1950</v>
+        <f>A130&amp;B130&amp;D131</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1935</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2745,14 +2745,14 @@
         <v>4</v>
       </c>
       <c r="C132">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D132">
-        <v>1965</v>
+        <v>1950</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1965</v>
+        <f>A131&amp;B131&amp;D132</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1950</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2763,14 +2763,14 @@
         <v>4</v>
       </c>
       <c r="C133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133">
-        <v>1980</v>
+        <v>1965</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1980</v>
+        <f>A132&amp;B132&amp;D133</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1965</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2781,14 +2781,14 @@
         <v>4</v>
       </c>
       <c r="C134">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D134">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1995</v>
+        <f>A133&amp;B133&amp;D134</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1980</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2799,14 +2799,14 @@
         <v>4</v>
       </c>
       <c r="C135">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D135">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2010</v>
+        <f>A134&amp;B134&amp;D135</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=1995</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2817,14 +2817,14 @@
         <v>4</v>
       </c>
       <c r="C136">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D136">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2025</v>
+        <f>A135&amp;B135&amp;D136</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2010</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2835,14 +2835,14 @@
         <v>4</v>
       </c>
       <c r="C137">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D137">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2040</v>
+        <f>A136&amp;B136&amp;D137</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2025</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2853,14 +2853,14 @@
         <v>4</v>
       </c>
       <c r="C138">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D138">
-        <v>2055</v>
+        <v>2040</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2055</v>
+        <f>A137&amp;B137&amp;D138</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2040</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2871,14 +2871,14 @@
         <v>4</v>
       </c>
       <c r="C139">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D139">
-        <v>2070</v>
+        <v>2055</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2070</v>
+        <f>A138&amp;B138&amp;D139</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2055</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2889,14 +2889,14 @@
         <v>4</v>
       </c>
       <c r="C140">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D140">
-        <v>2085</v>
+        <v>2070</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2085</v>
+        <f>A139&amp;B139&amp;D140</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2070</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2907,14 +2907,14 @@
         <v>4</v>
       </c>
       <c r="C141">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D141">
-        <v>2100</v>
+        <v>2085</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2100</v>
+        <f>A140&amp;B140&amp;D141</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2085</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2925,14 +2925,14 @@
         <v>4</v>
       </c>
       <c r="C142">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D142">
-        <v>2115</v>
+        <v>2100</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2115</v>
+        <f>A141&amp;B141&amp;D142</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2100</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2943,14 +2943,14 @@
         <v>4</v>
       </c>
       <c r="C143">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D143">
-        <v>2130</v>
+        <v>2115</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2130</v>
+        <f>A142&amp;B142&amp;D143</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2115</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2961,14 +2961,14 @@
         <v>4</v>
       </c>
       <c r="C144">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D144">
-        <v>2145</v>
+        <v>2130</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2145</v>
+        <f>A143&amp;B143&amp;D144</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2130</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2979,14 +2979,14 @@
         <v>4</v>
       </c>
       <c r="C145">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D145">
-        <v>2160</v>
+        <v>2145</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2160</v>
+        <f>A144&amp;B144&amp;D145</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2145</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2997,14 +2997,14 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D146">
-        <v>2175</v>
+        <v>2160</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2175</v>
+        <f>A145&amp;B145&amp;D146</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2160</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3015,14 +3015,14 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D147">
-        <v>2190</v>
+        <v>2175</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2190</v>
+        <f>A146&amp;B146&amp;D147</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2175</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3033,14 +3033,14 @@
         <v>4</v>
       </c>
       <c r="C148">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D148">
-        <v>2205</v>
+        <v>2190</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2205</v>
+        <f>A147&amp;B147&amp;D148</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2190</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3051,14 +3051,14 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D149">
-        <v>2220</v>
+        <v>2205</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2220</v>
+        <f>A148&amp;B148&amp;D149</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2205</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3069,14 +3069,14 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D150">
-        <v>2235</v>
+        <v>2220</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2235</v>
+        <f>A149&amp;B149&amp;D150</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2220</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3087,14 +3087,14 @@
         <v>4</v>
       </c>
       <c r="C151">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D151">
-        <v>2250</v>
+        <v>2235</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2250</v>
+        <f>A150&amp;B150&amp;D151</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2235</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3105,14 +3105,14 @@
         <v>4</v>
       </c>
       <c r="C152">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D152">
-        <v>2265</v>
+        <v>2250</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2265</v>
+        <f>A151&amp;B151&amp;D152</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2250</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3123,14 +3123,14 @@
         <v>4</v>
       </c>
       <c r="C153">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D153">
-        <v>2280</v>
+        <v>2265</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2280</v>
+        <f>A152&amp;B152&amp;D153</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2265</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3141,14 +3141,14 @@
         <v>4</v>
       </c>
       <c r="C154">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D154">
-        <v>2295</v>
+        <v>2280</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2295</v>
+        <f>A153&amp;B153&amp;D154</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2280</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3159,14 +3159,14 @@
         <v>4</v>
       </c>
       <c r="C155">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D155">
-        <v>2310</v>
+        <v>2295</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2310</v>
+        <f>A154&amp;B154&amp;D155</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2295</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3177,14 +3177,14 @@
         <v>4</v>
       </c>
       <c r="C156">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D156">
-        <v>2325</v>
+        <v>2310</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2325</v>
+        <f>A155&amp;B155&amp;D156</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2310</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3195,14 +3195,14 @@
         <v>4</v>
       </c>
       <c r="C157">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D157">
-        <v>2340</v>
+        <v>2325</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2340</v>
+        <f>A156&amp;B156&amp;D157</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2325</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3213,14 +3213,14 @@
         <v>4</v>
       </c>
       <c r="C158">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D158">
-        <v>2355</v>
+        <v>2340</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2355</v>
+        <f>A157&amp;B157&amp;D158</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2340</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3231,14 +3231,14 @@
         <v>4</v>
       </c>
       <c r="C159">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D159">
-        <v>2370</v>
+        <v>2355</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2370</v>
+        <f>A158&amp;B158&amp;D159</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2355</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3249,14 +3249,14 @@
         <v>4</v>
       </c>
       <c r="C160">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D160">
-        <v>2385</v>
+        <v>2370</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2385</v>
+        <f>A159&amp;B159&amp;D160</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2370</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3267,14 +3267,14 @@
         <v>4</v>
       </c>
       <c r="C161">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D161">
-        <v>2400</v>
+        <v>2385</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2400</v>
+        <f>A160&amp;B160&amp;D161</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2385</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3285,14 +3285,14 @@
         <v>4</v>
       </c>
       <c r="C162">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D162">
-        <v>2415</v>
+        <v>2400</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2415</v>
+        <f>A161&amp;B161&amp;D162</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2400</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3303,14 +3303,14 @@
         <v>4</v>
       </c>
       <c r="C163">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D163">
-        <v>2430</v>
+        <v>2415</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2430</v>
+        <f>A162&amp;B162&amp;D163</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2415</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3321,14 +3321,14 @@
         <v>4</v>
       </c>
       <c r="C164">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D164">
-        <v>2445</v>
+        <v>2430</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2445</v>
+        <f>A163&amp;B163&amp;D164</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2430</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3339,14 +3339,14 @@
         <v>4</v>
       </c>
       <c r="C165">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D165">
-        <v>2460</v>
+        <v>2445</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2460</v>
+        <f>A164&amp;B164&amp;D165</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2445</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3357,14 +3357,14 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D166">
-        <v>2475</v>
+        <v>2460</v>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2475</v>
+        <f>A165&amp;B165&amp;D166</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2460</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3375,14 +3375,14 @@
         <v>4</v>
       </c>
       <c r="C167">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D167">
-        <v>2490</v>
+        <v>2475</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2490</v>
+        <f>A166&amp;B166&amp;D167</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2475</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3393,14 +3393,14 @@
         <v>4</v>
       </c>
       <c r="C168">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D168">
-        <v>2505</v>
+        <v>2490</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2505</v>
+        <f>A167&amp;B167&amp;D168</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2490</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3411,14 +3411,14 @@
         <v>4</v>
       </c>
       <c r="C169">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D169">
-        <v>2520</v>
+        <v>2505</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2520</v>
+        <f>A168&amp;B168&amp;D169</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2505</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3429,14 +3429,14 @@
         <v>4</v>
       </c>
       <c r="C170">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D170">
-        <v>2535</v>
+        <v>2520</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2535</v>
+        <f>A169&amp;B169&amp;D170</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2520</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3447,14 +3447,14 @@
         <v>4</v>
       </c>
       <c r="C171">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D171">
-        <v>2550</v>
+        <v>2535</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2550</v>
+        <f>A170&amp;B170&amp;D171</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2535</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3465,14 +3465,14 @@
         <v>4</v>
       </c>
       <c r="C172">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D172">
-        <v>2565</v>
+        <v>2550</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2565</v>
+        <f>A171&amp;B171&amp;D172</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2550</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3483,14 +3483,14 @@
         <v>4</v>
       </c>
       <c r="C173">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D173">
-        <v>2580</v>
+        <v>2565</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2580</v>
+        <f>A172&amp;B172&amp;D173</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2565</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3501,14 +3501,14 @@
         <v>4</v>
       </c>
       <c r="C174">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D174">
-        <v>2595</v>
+        <v>2580</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2595</v>
+        <f>A173&amp;B173&amp;D174</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2580</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3519,14 +3519,14 @@
         <v>4</v>
       </c>
       <c r="C175">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D175">
-        <v>2610</v>
+        <v>2595</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2610</v>
+        <f>A174&amp;B174&amp;D175</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2595</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3537,14 +3537,14 @@
         <v>4</v>
       </c>
       <c r="C176">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D176">
-        <v>2625</v>
+        <v>2610</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2625</v>
+        <f>A175&amp;B175&amp;D176</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2610</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3555,14 +3555,14 @@
         <v>4</v>
       </c>
       <c r="C177">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D177">
-        <v>2640</v>
+        <v>2625</v>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2640</v>
+        <f>A176&amp;B176&amp;D177</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2625</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3573,14 +3573,14 @@
         <v>4</v>
       </c>
       <c r="C178">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D178">
-        <v>2655</v>
+        <v>2640</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2655</v>
+        <f>A177&amp;B177&amp;D178</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2640</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3591,14 +3591,14 @@
         <v>4</v>
       </c>
       <c r="C179">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D179">
-        <v>2670</v>
+        <v>2655</v>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2670</v>
+        <f>A178&amp;B178&amp;D179</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2655</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3609,14 +3609,14 @@
         <v>4</v>
       </c>
       <c r="C180">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D180">
-        <v>2685</v>
+        <v>2670</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2685</v>
+        <f>A179&amp;B179&amp;D180</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2670</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3627,14 +3627,14 @@
         <v>4</v>
       </c>
       <c r="C181">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D181">
-        <v>2700</v>
+        <v>2685</v>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2700</v>
+        <f>A180&amp;B180&amp;D181</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2685</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3645,14 +3645,14 @@
         <v>4</v>
       </c>
       <c r="C182">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D182">
-        <v>2715</v>
+        <v>2700</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2715</v>
+        <f>A181&amp;B181&amp;D182</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2700</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3663,14 +3663,14 @@
         <v>4</v>
       </c>
       <c r="C183">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D183">
-        <v>2730</v>
+        <v>2715</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2730</v>
+        <f>A182&amp;B182&amp;D183</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2715</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3681,14 +3681,14 @@
         <v>4</v>
       </c>
       <c r="C184">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D184">
-        <v>2745</v>
+        <v>2730</v>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2745</v>
+        <f>A183&amp;B183&amp;D184</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2730</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3699,14 +3699,14 @@
         <v>4</v>
       </c>
       <c r="C185">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D185">
-        <v>2760</v>
+        <v>2745</v>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2760</v>
+        <f>A184&amp;B184&amp;D185</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2745</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3717,14 +3717,14 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D186">
-        <v>2775</v>
+        <v>2760</v>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2775</v>
+        <f>A185&amp;B185&amp;D186</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2760</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3735,14 +3735,14 @@
         <v>4</v>
       </c>
       <c r="C187">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D187">
-        <v>2790</v>
+        <v>2775</v>
       </c>
       <c r="E187" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2790</v>
+        <f>A186&amp;B186&amp;D187</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2775</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3753,14 +3753,14 @@
         <v>4</v>
       </c>
       <c r="C188">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D188">
-        <v>2805</v>
+        <v>2790</v>
       </c>
       <c r="E188" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2805</v>
+        <f>A187&amp;B187&amp;D188</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2790</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3771,14 +3771,14 @@
         <v>4</v>
       </c>
       <c r="C189">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D189">
-        <v>2820</v>
+        <v>2805</v>
       </c>
       <c r="E189" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2820</v>
+        <f>A188&amp;B188&amp;D189</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2805</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3789,14 +3789,14 @@
         <v>4</v>
       </c>
       <c r="C190">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D190">
-        <v>2835</v>
+        <v>2820</v>
       </c>
       <c r="E190" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2835</v>
+        <f>A189&amp;B189&amp;D190</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2820</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3807,14 +3807,14 @@
         <v>4</v>
       </c>
       <c r="C191">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D191">
-        <v>2850</v>
+        <v>2835</v>
       </c>
       <c r="E191" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2850</v>
+        <f>A190&amp;B190&amp;D191</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2835</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3825,14 +3825,14 @@
         <v>4</v>
       </c>
       <c r="C192">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D192">
-        <v>2865</v>
+        <v>2850</v>
       </c>
       <c r="E192" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2865</v>
+        <f>A191&amp;B191&amp;D192</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2850</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3843,14 +3843,14 @@
         <v>4</v>
       </c>
       <c r="C193">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D193">
-        <v>2880</v>
+        <v>2865</v>
       </c>
       <c r="E193" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2880</v>
+        <f>A192&amp;B192&amp;D193</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2865</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3861,14 +3861,14 @@
         <v>4</v>
       </c>
       <c r="C194">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D194">
-        <v>2895</v>
+        <v>2880</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" si="2"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2895</v>
+        <f>A193&amp;B193&amp;D194</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2880</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3879,14 +3879,14 @@
         <v>4</v>
       </c>
       <c r="C195">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D195">
-        <v>2910</v>
+        <v>2895</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" ref="E195:E258" si="3">A195&amp;B195&amp;D195</f>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2910</v>
+        <f>A194&amp;B194&amp;D195</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2895</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3897,14 +3897,14 @@
         <v>4</v>
       </c>
       <c r="C196">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D196">
-        <v>2925</v>
+        <v>2910</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2925</v>
+        <f>A195&amp;B195&amp;D196</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2910</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3915,14 +3915,14 @@
         <v>4</v>
       </c>
       <c r="C197">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D197">
-        <v>2940</v>
+        <v>2925</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2940</v>
+        <f>A196&amp;B196&amp;D197</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2925</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3933,14 +3933,14 @@
         <v>4</v>
       </c>
       <c r="C198">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D198">
-        <v>2955</v>
+        <v>2940</v>
       </c>
       <c r="E198" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2955</v>
+        <f>A197&amp;B197&amp;D198</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2940</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3951,14 +3951,14 @@
         <v>4</v>
       </c>
       <c r="C199">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D199">
-        <v>2970</v>
+        <v>2955</v>
       </c>
       <c r="E199" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2970</v>
+        <f>A198&amp;B198&amp;D199</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2955</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3969,14 +3969,14 @@
         <v>4</v>
       </c>
       <c r="C200">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D200">
-        <v>2985</v>
+        <v>2970</v>
       </c>
       <c r="E200" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2985</v>
+        <f>A199&amp;B199&amp;D200</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2970</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3987,14 +3987,14 @@
         <v>4</v>
       </c>
       <c r="C201">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D201">
-        <v>3000</v>
+        <v>2985</v>
       </c>
       <c r="E201" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3000</v>
+        <f>A200&amp;B200&amp;D201</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=2985</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4005,14 +4005,14 @@
         <v>4</v>
       </c>
       <c r="C202">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D202">
-        <v>3015</v>
+        <v>3000</v>
       </c>
       <c r="E202" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3015</v>
+        <f>A201&amp;B201&amp;D202</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3000</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4023,14 +4023,14 @@
         <v>4</v>
       </c>
       <c r="C203">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D203">
-        <v>3030</v>
+        <v>3015</v>
       </c>
       <c r="E203" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3030</v>
+        <f>A202&amp;B202&amp;D203</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3015</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4041,14 +4041,14 @@
         <v>4</v>
       </c>
       <c r="C204">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D204">
-        <v>3045</v>
+        <v>3030</v>
       </c>
       <c r="E204" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3045</v>
+        <f>A203&amp;B203&amp;D204</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3030</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4059,14 +4059,14 @@
         <v>4</v>
       </c>
       <c r="C205">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D205">
-        <v>3060</v>
+        <v>3045</v>
       </c>
       <c r="E205" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3060</v>
+        <f>A204&amp;B204&amp;D205</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3045</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4077,14 +4077,14 @@
         <v>4</v>
       </c>
       <c r="C206">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D206">
-        <v>3075</v>
+        <v>3060</v>
       </c>
       <c r="E206" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3075</v>
+        <f>A205&amp;B205&amp;D206</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3060</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4095,14 +4095,14 @@
         <v>4</v>
       </c>
       <c r="C207">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D207">
-        <v>3090</v>
+        <v>3075</v>
       </c>
       <c r="E207" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3090</v>
+        <f>A206&amp;B206&amp;D207</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3075</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4113,14 +4113,14 @@
         <v>4</v>
       </c>
       <c r="C208">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D208">
-        <v>3105</v>
+        <v>3090</v>
       </c>
       <c r="E208" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3105</v>
+        <f>A207&amp;B207&amp;D208</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3090</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4131,14 +4131,14 @@
         <v>4</v>
       </c>
       <c r="C209">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D209">
-        <v>3120</v>
+        <v>3105</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3120</v>
+        <f>A208&amp;B208&amp;D209</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3105</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4149,14 +4149,14 @@
         <v>4</v>
       </c>
       <c r="C210">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D210">
-        <v>3135</v>
+        <v>3120</v>
       </c>
       <c r="E210" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3135</v>
+        <f>A209&amp;B209&amp;D210</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3120</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4167,14 +4167,14 @@
         <v>4</v>
       </c>
       <c r="C211">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D211">
-        <v>3150</v>
+        <v>3135</v>
       </c>
       <c r="E211" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3150</v>
+        <f>A210&amp;B210&amp;D211</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3135</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4185,14 +4185,14 @@
         <v>4</v>
       </c>
       <c r="C212">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D212">
-        <v>3165</v>
+        <v>3150</v>
       </c>
       <c r="E212" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3165</v>
+        <f>A211&amp;B211&amp;D212</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3150</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4203,14 +4203,14 @@
         <v>4</v>
       </c>
       <c r="C213">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D213">
-        <v>3180</v>
+        <v>3165</v>
       </c>
       <c r="E213" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3180</v>
+        <f>A212&amp;B212&amp;D213</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3165</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4221,14 +4221,14 @@
         <v>4</v>
       </c>
       <c r="C214">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D214">
-        <v>3195</v>
+        <v>3180</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3195</v>
+        <f>A213&amp;B213&amp;D214</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3180</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4239,14 +4239,14 @@
         <v>4</v>
       </c>
       <c r="C215">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D215">
-        <v>3210</v>
+        <v>3195</v>
       </c>
       <c r="E215" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3210</v>
+        <f>A214&amp;B214&amp;D215</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3195</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4257,14 +4257,14 @@
         <v>4</v>
       </c>
       <c r="C216">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D216">
-        <v>3225</v>
+        <v>3210</v>
       </c>
       <c r="E216" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3225</v>
+        <f>A215&amp;B215&amp;D216</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3210</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4275,14 +4275,14 @@
         <v>4</v>
       </c>
       <c r="C217">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D217">
-        <v>3240</v>
+        <v>3225</v>
       </c>
       <c r="E217" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3240</v>
+        <f>A216&amp;B216&amp;D217</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3225</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4293,14 +4293,14 @@
         <v>4</v>
       </c>
       <c r="C218">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D218">
-        <v>3255</v>
+        <v>3240</v>
       </c>
       <c r="E218" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3255</v>
+        <f>A217&amp;B217&amp;D218</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3240</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4311,14 +4311,14 @@
         <v>4</v>
       </c>
       <c r="C219">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D219">
-        <v>3270</v>
+        <v>3255</v>
       </c>
       <c r="E219" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3270</v>
+        <f>A218&amp;B218&amp;D219</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3255</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4329,14 +4329,14 @@
         <v>4</v>
       </c>
       <c r="C220">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D220">
-        <v>3285</v>
+        <v>3270</v>
       </c>
       <c r="E220" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3285</v>
+        <f>A219&amp;B219&amp;D220</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3270</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4347,14 +4347,14 @@
         <v>4</v>
       </c>
       <c r="C221">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D221">
-        <v>3300</v>
+        <v>3285</v>
       </c>
       <c r="E221" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3300</v>
+        <f>A220&amp;B220&amp;D221</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3285</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4365,14 +4365,14 @@
         <v>4</v>
       </c>
       <c r="C222">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D222">
-        <v>3315</v>
+        <v>3300</v>
       </c>
       <c r="E222" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3315</v>
+        <f>A221&amp;B221&amp;D222</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3300</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4383,14 +4383,14 @@
         <v>4</v>
       </c>
       <c r="C223">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D223">
-        <v>3330</v>
+        <v>3315</v>
       </c>
       <c r="E223" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3330</v>
+        <f>A222&amp;B222&amp;D223</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3315</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4401,14 +4401,14 @@
         <v>4</v>
       </c>
       <c r="C224">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D224">
-        <v>3345</v>
+        <v>3330</v>
       </c>
       <c r="E224" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3345</v>
+        <f>A223&amp;B223&amp;D224</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3330</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4419,14 +4419,14 @@
         <v>4</v>
       </c>
       <c r="C225">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D225">
-        <v>3360</v>
+        <v>3345</v>
       </c>
       <c r="E225" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3360</v>
+        <f>A224&amp;B224&amp;D225</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3345</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4437,14 +4437,14 @@
         <v>4</v>
       </c>
       <c r="C226">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D226">
-        <v>3375</v>
+        <v>3360</v>
       </c>
       <c r="E226" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3375</v>
+        <f>A225&amp;B225&amp;D226</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3360</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4455,14 +4455,14 @@
         <v>4</v>
       </c>
       <c r="C227">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D227">
-        <v>3390</v>
+        <v>3375</v>
       </c>
       <c r="E227" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3390</v>
+        <f>A226&amp;B226&amp;D227</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3375</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4473,14 +4473,14 @@
         <v>4</v>
       </c>
       <c r="C228">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D228">
-        <v>3405</v>
+        <v>3390</v>
       </c>
       <c r="E228" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3405</v>
+        <f>A227&amp;B227&amp;D228</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3390</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4491,14 +4491,14 @@
         <v>4</v>
       </c>
       <c r="C229">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D229">
-        <v>3420</v>
+        <v>3405</v>
       </c>
       <c r="E229" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3420</v>
+        <f>A228&amp;B228&amp;D229</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3405</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4509,14 +4509,14 @@
         <v>4</v>
       </c>
       <c r="C230">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D230">
-        <v>3435</v>
+        <v>3420</v>
       </c>
       <c r="E230" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3435</v>
+        <f>A229&amp;B229&amp;D230</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3420</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4527,14 +4527,14 @@
         <v>4</v>
       </c>
       <c r="C231">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D231">
-        <v>3450</v>
+        <v>3435</v>
       </c>
       <c r="E231" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3450</v>
+        <f>A230&amp;B230&amp;D231</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3435</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4545,14 +4545,14 @@
         <v>4</v>
       </c>
       <c r="C232">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D232">
-        <v>3465</v>
+        <v>3450</v>
       </c>
       <c r="E232" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3465</v>
+        <f>A231&amp;B231&amp;D232</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3450</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4563,14 +4563,14 @@
         <v>4</v>
       </c>
       <c r="C233">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D233">
-        <v>3480</v>
+        <v>3465</v>
       </c>
       <c r="E233" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3480</v>
+        <f>A232&amp;B232&amp;D233</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3465</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4581,14 +4581,14 @@
         <v>4</v>
       </c>
       <c r="C234">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D234">
-        <v>3495</v>
+        <v>3480</v>
       </c>
       <c r="E234" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3495</v>
+        <f>A233&amp;B233&amp;D234</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3480</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4599,14 +4599,14 @@
         <v>4</v>
       </c>
       <c r="C235">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D235">
-        <v>3510</v>
+        <v>3495</v>
       </c>
       <c r="E235" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3510</v>
+        <f>A234&amp;B234&amp;D235</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3495</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4617,14 +4617,14 @@
         <v>4</v>
       </c>
       <c r="C236">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D236">
-        <v>3525</v>
+        <v>3510</v>
       </c>
       <c r="E236" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3525</v>
+        <f>A235&amp;B235&amp;D236</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3510</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4635,14 +4635,14 @@
         <v>4</v>
       </c>
       <c r="C237">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D237">
-        <v>3540</v>
+        <v>3525</v>
       </c>
       <c r="E237" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3540</v>
+        <f>A236&amp;B236&amp;D237</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3525</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4653,14 +4653,14 @@
         <v>4</v>
       </c>
       <c r="C238">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D238">
-        <v>3555</v>
+        <v>3540</v>
       </c>
       <c r="E238" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3555</v>
+        <f>A237&amp;B237&amp;D238</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3540</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4671,14 +4671,14 @@
         <v>4</v>
       </c>
       <c r="C239">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D239">
-        <v>3570</v>
+        <v>3555</v>
       </c>
       <c r="E239" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3570</v>
+        <f>A238&amp;B238&amp;D239</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3555</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4689,14 +4689,14 @@
         <v>4</v>
       </c>
       <c r="C240">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D240">
-        <v>3585</v>
+        <v>3570</v>
       </c>
       <c r="E240" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3585</v>
+        <f>A239&amp;B239&amp;D240</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3570</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4707,14 +4707,14 @@
         <v>4</v>
       </c>
       <c r="C241">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D241">
-        <v>3600</v>
+        <v>3585</v>
       </c>
       <c r="E241" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3600</v>
+        <f>A240&amp;B240&amp;D241</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3585</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4725,14 +4725,14 @@
         <v>4</v>
       </c>
       <c r="C242">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D242">
-        <v>3615</v>
+        <v>3600</v>
       </c>
       <c r="E242" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3615</v>
+        <f>A241&amp;B241&amp;D242</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3600</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4743,14 +4743,14 @@
         <v>4</v>
       </c>
       <c r="C243">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D243">
-        <v>3630</v>
+        <v>3615</v>
       </c>
       <c r="E243" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3630</v>
+        <f>A242&amp;B242&amp;D243</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3615</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4761,14 +4761,14 @@
         <v>4</v>
       </c>
       <c r="C244">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D244">
-        <v>3645</v>
+        <v>3630</v>
       </c>
       <c r="E244" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3645</v>
+        <f>A243&amp;B243&amp;D244</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3630</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4779,14 +4779,14 @@
         <v>4</v>
       </c>
       <c r="C245">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D245">
-        <v>3660</v>
+        <v>3645</v>
       </c>
       <c r="E245" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3660</v>
+        <f>A244&amp;B244&amp;D245</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3645</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4797,14 +4797,14 @@
         <v>4</v>
       </c>
       <c r="C246">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D246">
-        <v>3675</v>
+        <v>3660</v>
       </c>
       <c r="E246" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3675</v>
+        <f>A245&amp;B245&amp;D246</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3660</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4815,14 +4815,14 @@
         <v>4</v>
       </c>
       <c r="C247">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D247">
-        <v>3690</v>
+        <v>3675</v>
       </c>
       <c r="E247" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3690</v>
+        <f>A246&amp;B246&amp;D247</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3675</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4833,14 +4833,14 @@
         <v>4</v>
       </c>
       <c r="C248">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D248">
-        <v>3705</v>
+        <v>3690</v>
       </c>
       <c r="E248" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3705</v>
+        <f>A247&amp;B247&amp;D248</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3690</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4851,14 +4851,14 @@
         <v>4</v>
       </c>
       <c r="C249">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D249">
-        <v>3720</v>
+        <v>3705</v>
       </c>
       <c r="E249" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3720</v>
+        <f>A248&amp;B248&amp;D249</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3705</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4869,14 +4869,14 @@
         <v>4</v>
       </c>
       <c r="C250">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D250">
-        <v>3735</v>
+        <v>3720</v>
       </c>
       <c r="E250" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3735</v>
+        <f>A249&amp;B249&amp;D250</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3720</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4887,14 +4887,14 @@
         <v>4</v>
       </c>
       <c r="C251">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D251">
-        <v>3750</v>
+        <v>3735</v>
       </c>
       <c r="E251" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3750</v>
+        <f>A250&amp;B250&amp;D251</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3735</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4905,14 +4905,14 @@
         <v>4</v>
       </c>
       <c r="C252">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D252">
-        <v>3765</v>
+        <v>3750</v>
       </c>
       <c r="E252" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3765</v>
+        <f>A251&amp;B251&amp;D252</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3750</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4923,14 +4923,14 @@
         <v>4</v>
       </c>
       <c r="C253">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D253">
-        <v>3780</v>
+        <v>3765</v>
       </c>
       <c r="E253" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3780</v>
+        <f>A252&amp;B252&amp;D253</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3765</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4941,14 +4941,14 @@
         <v>4</v>
       </c>
       <c r="C254">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D254">
-        <v>3795</v>
+        <v>3780</v>
       </c>
       <c r="E254" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3795</v>
+        <f>A253&amp;B253&amp;D254</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3780</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4959,14 +4959,14 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D255">
-        <v>3810</v>
+        <v>3795</v>
       </c>
       <c r="E255" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3810</v>
+        <f>A254&amp;B254&amp;D255</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3795</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4977,14 +4977,14 @@
         <v>4</v>
       </c>
       <c r="C256">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D256">
-        <v>3825</v>
+        <v>3810</v>
       </c>
       <c r="E256" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3825</v>
+        <f>A255&amp;B255&amp;D256</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3810</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4995,14 +4995,14 @@
         <v>4</v>
       </c>
       <c r="C257">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D257">
-        <v>3840</v>
+        <v>3825</v>
       </c>
       <c r="E257" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3840</v>
+        <f>A256&amp;B256&amp;D257</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3825</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5013,14 +5013,14 @@
         <v>4</v>
       </c>
       <c r="C258">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D258">
-        <v>3855</v>
+        <v>3840</v>
       </c>
       <c r="E258" t="str">
-        <f t="shared" si="3"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3855</v>
+        <f>A257&amp;B257&amp;D258</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3840</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5031,14 +5031,14 @@
         <v>4</v>
       </c>
       <c r="C259">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D259">
-        <v>3870</v>
+        <v>3855</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" ref="E259:E322" si="4">A259&amp;B259&amp;D259</f>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3870</v>
+        <f>A258&amp;B258&amp;D259</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3855</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5049,14 +5049,14 @@
         <v>4</v>
       </c>
       <c r="C260">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D260">
-        <v>3885</v>
+        <v>3870</v>
       </c>
       <c r="E260" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3885</v>
+        <f>A259&amp;B259&amp;D260</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3870</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5067,14 +5067,14 @@
         <v>4</v>
       </c>
       <c r="C261">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D261">
-        <v>3900</v>
+        <v>3885</v>
       </c>
       <c r="E261" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3900</v>
+        <f>A260&amp;B260&amp;D261</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3885</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5085,14 +5085,14 @@
         <v>4</v>
       </c>
       <c r="C262">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D262">
-        <v>3915</v>
+        <v>3900</v>
       </c>
       <c r="E262" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3915</v>
+        <f>A261&amp;B261&amp;D262</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3900</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5103,14 +5103,14 @@
         <v>4</v>
       </c>
       <c r="C263">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D263">
-        <v>3930</v>
+        <v>3915</v>
       </c>
       <c r="E263" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3930</v>
+        <f>A262&amp;B262&amp;D263</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3915</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5121,14 +5121,14 @@
         <v>4</v>
       </c>
       <c r="C264">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D264">
-        <v>3945</v>
+        <v>3930</v>
       </c>
       <c r="E264" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3945</v>
+        <f>A263&amp;B263&amp;D264</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3930</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5139,14 +5139,14 @@
         <v>4</v>
       </c>
       <c r="C265">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D265">
-        <v>3960</v>
+        <v>3945</v>
       </c>
       <c r="E265" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3960</v>
+        <f>A264&amp;B264&amp;D265</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3945</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5157,14 +5157,14 @@
         <v>4</v>
       </c>
       <c r="C266">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D266">
-        <v>3975</v>
+        <v>3960</v>
       </c>
       <c r="E266" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3975</v>
+        <f>A265&amp;B265&amp;D266</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3960</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5175,14 +5175,14 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D267">
-        <v>3990</v>
+        <v>3975</v>
       </c>
       <c r="E267" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3990</v>
+        <f>A266&amp;B266&amp;D267</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3975</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5193,14 +5193,14 @@
         <v>4</v>
       </c>
       <c r="C268">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D268">
-        <v>4005</v>
+        <v>3990</v>
       </c>
       <c r="E268" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4005</v>
+        <f>A267&amp;B267&amp;D268</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=3990</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5211,14 +5211,14 @@
         <v>4</v>
       </c>
       <c r="C269">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D269">
-        <v>4020</v>
+        <v>4005</v>
       </c>
       <c r="E269" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4020</v>
+        <f>A268&amp;B268&amp;D269</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4005</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5229,14 +5229,14 @@
         <v>4</v>
       </c>
       <c r="C270">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D270">
-        <v>4035</v>
+        <v>4020</v>
       </c>
       <c r="E270" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4035</v>
+        <f>A269&amp;B269&amp;D270</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4020</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5247,14 +5247,14 @@
         <v>4</v>
       </c>
       <c r="C271">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D271">
-        <v>4050</v>
+        <v>4035</v>
       </c>
       <c r="E271" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4050</v>
+        <f>A270&amp;B270&amp;D271</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4035</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5265,14 +5265,14 @@
         <v>4</v>
       </c>
       <c r="C272">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D272">
-        <v>4065</v>
+        <v>4050</v>
       </c>
       <c r="E272" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4065</v>
+        <f>A271&amp;B271&amp;D272</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4050</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5283,14 +5283,14 @@
         <v>4</v>
       </c>
       <c r="C273">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D273">
-        <v>4080</v>
+        <v>4065</v>
       </c>
       <c r="E273" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4080</v>
+        <f>A272&amp;B272&amp;D273</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4065</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5301,14 +5301,14 @@
         <v>4</v>
       </c>
       <c r="C274">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D274">
-        <v>4095</v>
+        <v>4080</v>
       </c>
       <c r="E274" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4095</v>
+        <f>A273&amp;B273&amp;D274</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4080</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5319,14 +5319,14 @@
         <v>4</v>
       </c>
       <c r="C275">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D275">
-        <v>4110</v>
+        <v>4095</v>
       </c>
       <c r="E275" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4110</v>
+        <f>A274&amp;B274&amp;D275</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4095</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5337,14 +5337,14 @@
         <v>4</v>
       </c>
       <c r="C276">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D276">
-        <v>4125</v>
+        <v>4110</v>
       </c>
       <c r="E276" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4125</v>
+        <f>A275&amp;B275&amp;D276</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4110</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5355,14 +5355,14 @@
         <v>4</v>
       </c>
       <c r="C277">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D277">
-        <v>4140</v>
+        <v>4125</v>
       </c>
       <c r="E277" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4140</v>
+        <f>A276&amp;B276&amp;D277</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4125</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5373,14 +5373,14 @@
         <v>4</v>
       </c>
       <c r="C278">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D278">
-        <v>4155</v>
+        <v>4140</v>
       </c>
       <c r="E278" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4155</v>
+        <f>A277&amp;B277&amp;D278</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4140</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5391,14 +5391,14 @@
         <v>4</v>
       </c>
       <c r="C279">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D279">
-        <v>4170</v>
+        <v>4155</v>
       </c>
       <c r="E279" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4170</v>
+        <f>A278&amp;B278&amp;D279</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4155</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5409,14 +5409,14 @@
         <v>4</v>
       </c>
       <c r="C280">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D280">
-        <v>4185</v>
+        <v>4170</v>
       </c>
       <c r="E280" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4185</v>
+        <f>A279&amp;B279&amp;D280</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4170</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5427,14 +5427,14 @@
         <v>4</v>
       </c>
       <c r="C281">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D281">
-        <v>4200</v>
+        <v>4185</v>
       </c>
       <c r="E281" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4200</v>
+        <f>A280&amp;B280&amp;D281</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4185</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5445,14 +5445,14 @@
         <v>4</v>
       </c>
       <c r="C282">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D282">
-        <v>4215</v>
+        <v>4200</v>
       </c>
       <c r="E282" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4215</v>
+        <f>A281&amp;B281&amp;D282</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4200</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5463,14 +5463,14 @@
         <v>4</v>
       </c>
       <c r="C283">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D283">
-        <v>4230</v>
+        <v>4215</v>
       </c>
       <c r="E283" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4230</v>
+        <f>A282&amp;B282&amp;D283</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4215</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5481,14 +5481,14 @@
         <v>4</v>
       </c>
       <c r="C284">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D284">
-        <v>4245</v>
+        <v>4230</v>
       </c>
       <c r="E284" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4245</v>
+        <f>A283&amp;B283&amp;D284</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4230</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5499,14 +5499,14 @@
         <v>4</v>
       </c>
       <c r="C285">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D285">
-        <v>4260</v>
+        <v>4245</v>
       </c>
       <c r="E285" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4260</v>
+        <f>A284&amp;B284&amp;D285</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4245</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5517,14 +5517,14 @@
         <v>4</v>
       </c>
       <c r="C286">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D286">
-        <v>4275</v>
+        <v>4260</v>
       </c>
       <c r="E286" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4275</v>
+        <f>A285&amp;B285&amp;D286</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4260</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5535,14 +5535,14 @@
         <v>4</v>
       </c>
       <c r="C287">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D287">
-        <v>4290</v>
+        <v>4275</v>
       </c>
       <c r="E287" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4290</v>
+        <f>A286&amp;B286&amp;D287</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4275</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5553,14 +5553,14 @@
         <v>4</v>
       </c>
       <c r="C288">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D288">
-        <v>4305</v>
+        <v>4290</v>
       </c>
       <c r="E288" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4305</v>
+        <f>A287&amp;B287&amp;D288</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4290</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5571,14 +5571,14 @@
         <v>4</v>
       </c>
       <c r="C289">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D289">
-        <v>4320</v>
+        <v>4305</v>
       </c>
       <c r="E289" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4320</v>
+        <f>A288&amp;B288&amp;D289</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4305</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5589,14 +5589,14 @@
         <v>4</v>
       </c>
       <c r="C290">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D290">
-        <v>4335</v>
+        <v>4320</v>
       </c>
       <c r="E290" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4335</v>
+        <f>A289&amp;B289&amp;D290</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4320</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5607,14 +5607,14 @@
         <v>4</v>
       </c>
       <c r="C291">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D291">
-        <v>4350</v>
+        <v>4335</v>
       </c>
       <c r="E291" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4350</v>
+        <f>A290&amp;B290&amp;D291</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4335</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5625,14 +5625,14 @@
         <v>4</v>
       </c>
       <c r="C292">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D292">
-        <v>4365</v>
+        <v>4350</v>
       </c>
       <c r="E292" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4365</v>
+        <f>A291&amp;B291&amp;D292</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4350</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5643,14 +5643,14 @@
         <v>4</v>
       </c>
       <c r="C293">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D293">
-        <v>4380</v>
+        <v>4365</v>
       </c>
       <c r="E293" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4380</v>
+        <f>A292&amp;B292&amp;D293</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4365</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5661,14 +5661,14 @@
         <v>4</v>
       </c>
       <c r="C294">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D294">
-        <v>4395</v>
+        <v>4380</v>
       </c>
       <c r="E294" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4395</v>
+        <f>A293&amp;B293&amp;D294</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4380</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5679,14 +5679,14 @@
         <v>4</v>
       </c>
       <c r="C295">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D295">
-        <v>4410</v>
+        <v>4395</v>
       </c>
       <c r="E295" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4410</v>
+        <f>A294&amp;B294&amp;D295</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4395</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5697,14 +5697,14 @@
         <v>4</v>
       </c>
       <c r="C296">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D296">
-        <v>4425</v>
+        <v>4410</v>
       </c>
       <c r="E296" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4425</v>
+        <f>A295&amp;B295&amp;D296</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4410</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5715,14 +5715,14 @@
         <v>4</v>
       </c>
       <c r="C297">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D297">
-        <v>4440</v>
+        <v>4425</v>
       </c>
       <c r="E297" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4440</v>
+        <f>A296&amp;B296&amp;D297</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4425</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5733,14 +5733,14 @@
         <v>4</v>
       </c>
       <c r="C298">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D298">
-        <v>4455</v>
+        <v>4440</v>
       </c>
       <c r="E298" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4455</v>
+        <f>A297&amp;B297&amp;D298</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4440</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5751,14 +5751,14 @@
         <v>4</v>
       </c>
       <c r="C299">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D299">
-        <v>4470</v>
+        <v>4455</v>
       </c>
       <c r="E299" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4470</v>
+        <f>A298&amp;B298&amp;D299</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4455</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5769,14 +5769,14 @@
         <v>4</v>
       </c>
       <c r="C300">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D300">
-        <v>4485</v>
+        <v>4470</v>
       </c>
       <c r="E300" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4485</v>
+        <f>A299&amp;B299&amp;D300</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4470</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5787,14 +5787,14 @@
         <v>4</v>
       </c>
       <c r="C301">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D301">
-        <v>4500</v>
+        <v>4485</v>
       </c>
       <c r="E301" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4500</v>
+        <f>A300&amp;B300&amp;D301</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4485</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5805,14 +5805,14 @@
         <v>4</v>
       </c>
       <c r="C302">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D302">
-        <v>4515</v>
+        <v>4500</v>
       </c>
       <c r="E302" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4515</v>
+        <f>A301&amp;B301&amp;D302</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4500</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5823,14 +5823,14 @@
         <v>4</v>
       </c>
       <c r="C303">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D303">
-        <v>4530</v>
+        <v>4515</v>
       </c>
       <c r="E303" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4530</v>
+        <f>A302&amp;B302&amp;D303</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4515</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5841,14 +5841,14 @@
         <v>4</v>
       </c>
       <c r="C304">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D304">
-        <v>4545</v>
+        <v>4530</v>
       </c>
       <c r="E304" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4545</v>
+        <f>A303&amp;B303&amp;D304</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4530</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5859,14 +5859,14 @@
         <v>4</v>
       </c>
       <c r="C305">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D305">
-        <v>4560</v>
+        <v>4545</v>
       </c>
       <c r="E305" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4560</v>
+        <f>A304&amp;B304&amp;D305</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4545</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5877,14 +5877,14 @@
         <v>4</v>
       </c>
       <c r="C306">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D306">
-        <v>4575</v>
+        <v>4560</v>
       </c>
       <c r="E306" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4575</v>
+        <f>A305&amp;B305&amp;D306</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4560</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5895,14 +5895,14 @@
         <v>4</v>
       </c>
       <c r="C307">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D307">
-        <v>4590</v>
+        <v>4575</v>
       </c>
       <c r="E307" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4590</v>
+        <f>A306&amp;B306&amp;D307</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4575</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5913,14 +5913,14 @@
         <v>4</v>
       </c>
       <c r="C308">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D308">
-        <v>4605</v>
+        <v>4590</v>
       </c>
       <c r="E308" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4605</v>
+        <f>A307&amp;B307&amp;D308</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4590</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5931,14 +5931,14 @@
         <v>4</v>
       </c>
       <c r="C309">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D309">
-        <v>4620</v>
+        <v>4605</v>
       </c>
       <c r="E309" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4620</v>
+        <f>A308&amp;B308&amp;D309</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4605</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5949,14 +5949,14 @@
         <v>4</v>
       </c>
       <c r="C310">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D310">
-        <v>4635</v>
+        <v>4620</v>
       </c>
       <c r="E310" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4635</v>
+        <f>A309&amp;B309&amp;D310</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4620</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5967,14 +5967,14 @@
         <v>4</v>
       </c>
       <c r="C311">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D311">
-        <v>4650</v>
+        <v>4635</v>
       </c>
       <c r="E311" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4650</v>
+        <f>A310&amp;B310&amp;D311</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4635</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5985,14 +5985,14 @@
         <v>4</v>
       </c>
       <c r="C312">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D312">
-        <v>4665</v>
+        <v>4650</v>
       </c>
       <c r="E312" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4665</v>
+        <f>A311&amp;B311&amp;D312</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4650</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6003,14 +6003,14 @@
         <v>4</v>
       </c>
       <c r="C313">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D313">
-        <v>4680</v>
+        <v>4665</v>
       </c>
       <c r="E313" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4680</v>
+        <f>A312&amp;B312&amp;D313</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4665</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6021,14 +6021,14 @@
         <v>4</v>
       </c>
       <c r="C314">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D314">
-        <v>4695</v>
+        <v>4680</v>
       </c>
       <c r="E314" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4695</v>
+        <f>A313&amp;B313&amp;D314</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4680</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6039,14 +6039,14 @@
         <v>4</v>
       </c>
       <c r="C315">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D315">
-        <v>4710</v>
+        <v>4695</v>
       </c>
       <c r="E315" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4710</v>
+        <f>A314&amp;B314&amp;D315</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4695</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6057,14 +6057,14 @@
         <v>4</v>
       </c>
       <c r="C316">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D316">
-        <v>4725</v>
+        <v>4710</v>
       </c>
       <c r="E316" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4725</v>
+        <f>A315&amp;B315&amp;D316</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4710</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6075,14 +6075,14 @@
         <v>4</v>
       </c>
       <c r="C317">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D317">
-        <v>4740</v>
+        <v>4725</v>
       </c>
       <c r="E317" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4740</v>
+        <f>A316&amp;B316&amp;D317</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4725</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6093,14 +6093,14 @@
         <v>4</v>
       </c>
       <c r="C318">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D318">
-        <v>4755</v>
+        <v>4740</v>
       </c>
       <c r="E318" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4755</v>
+        <f>A317&amp;B317&amp;D318</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4740</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6111,14 +6111,14 @@
         <v>4</v>
       </c>
       <c r="C319">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D319">
-        <v>4770</v>
+        <v>4755</v>
       </c>
       <c r="E319" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4770</v>
+        <f>A318&amp;B318&amp;D319</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4755</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6129,14 +6129,14 @@
         <v>4</v>
       </c>
       <c r="C320">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D320">
-        <v>4785</v>
+        <v>4770</v>
       </c>
       <c r="E320" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4785</v>
+        <f>A319&amp;B319&amp;D320</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4770</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6147,14 +6147,14 @@
         <v>4</v>
       </c>
       <c r="C321">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D321">
-        <v>4800</v>
+        <v>4785</v>
       </c>
       <c r="E321" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4800</v>
+        <f>A320&amp;B320&amp;D321</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4785</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -6165,14 +6165,14 @@
         <v>4</v>
       </c>
       <c r="C322">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D322">
-        <v>4815</v>
+        <v>4800</v>
       </c>
       <c r="E322" t="str">
-        <f t="shared" si="4"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4815</v>
+        <f>A321&amp;B321&amp;D322</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4800</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -6183,14 +6183,14 @@
         <v>4</v>
       </c>
       <c r="C323">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D323">
-        <v>4830</v>
+        <v>4815</v>
       </c>
       <c r="E323" t="str">
-        <f t="shared" ref="E323:E365" si="5">A323&amp;B323&amp;D323</f>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4830</v>
+        <f>A322&amp;B322&amp;D323</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4815</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -6201,14 +6201,14 @@
         <v>4</v>
       </c>
       <c r="C324">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D324">
-        <v>4845</v>
+        <v>4830</v>
       </c>
       <c r="E324" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4845</v>
+        <f>A323&amp;B323&amp;D324</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4830</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -6219,14 +6219,14 @@
         <v>4</v>
       </c>
       <c r="C325">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D325">
-        <v>4860</v>
+        <v>4845</v>
       </c>
       <c r="E325" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4860</v>
+        <f>A324&amp;B324&amp;D325</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4845</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6237,14 +6237,14 @@
         <v>4</v>
       </c>
       <c r="C326">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D326">
-        <v>4875</v>
+        <v>4860</v>
       </c>
       <c r="E326" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4875</v>
+        <f>A325&amp;B325&amp;D326</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4860</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6255,14 +6255,14 @@
         <v>4</v>
       </c>
       <c r="C327">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D327">
-        <v>4890</v>
+        <v>4875</v>
       </c>
       <c r="E327" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4890</v>
+        <f>A326&amp;B326&amp;D327</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4875</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6273,14 +6273,14 @@
         <v>4</v>
       </c>
       <c r="C328">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D328">
-        <v>4905</v>
+        <v>4890</v>
       </c>
       <c r="E328" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4905</v>
+        <f>A327&amp;B327&amp;D328</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4890</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6291,14 +6291,14 @@
         <v>4</v>
       </c>
       <c r="C329">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D329">
-        <v>4920</v>
+        <v>4905</v>
       </c>
       <c r="E329" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4920</v>
+        <f>A328&amp;B328&amp;D329</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4905</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6309,14 +6309,14 @@
         <v>4</v>
       </c>
       <c r="C330">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D330">
-        <v>4935</v>
+        <v>4920</v>
       </c>
       <c r="E330" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4935</v>
+        <f>A329&amp;B329&amp;D330</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4920</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6327,14 +6327,14 @@
         <v>4</v>
       </c>
       <c r="C331">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D331">
-        <v>4950</v>
+        <v>4935</v>
       </c>
       <c r="E331" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4950</v>
+        <f>A330&amp;B330&amp;D331</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4935</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6345,14 +6345,14 @@
         <v>4</v>
       </c>
       <c r="C332">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D332">
-        <v>4965</v>
+        <v>4950</v>
       </c>
       <c r="E332" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4965</v>
+        <f>A331&amp;B331&amp;D332</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4950</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6363,14 +6363,14 @@
         <v>4</v>
       </c>
       <c r="C333">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D333">
-        <v>4980</v>
+        <v>4965</v>
       </c>
       <c r="E333" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4980</v>
+        <f>A332&amp;B332&amp;D333</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4965</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6381,14 +6381,14 @@
         <v>4</v>
       </c>
       <c r="C334">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D334">
-        <v>4995</v>
+        <v>4980</v>
       </c>
       <c r="E334" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4995</v>
+        <f>A333&amp;B333&amp;D334</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4980</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6399,14 +6399,14 @@
         <v>4</v>
       </c>
       <c r="C335">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D335">
-        <v>5010</v>
+        <v>4995</v>
       </c>
       <c r="E335" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5010</v>
+        <f>A334&amp;B334&amp;D335</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=4995</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6417,14 +6417,14 @@
         <v>4</v>
       </c>
       <c r="C336">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D336">
-        <v>5025</v>
+        <v>5010</v>
       </c>
       <c r="E336" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5025</v>
+        <f>A335&amp;B335&amp;D336</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5010</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6435,14 +6435,14 @@
         <v>4</v>
       </c>
       <c r="C337">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D337">
-        <v>5040</v>
+        <v>5025</v>
       </c>
       <c r="E337" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5040</v>
+        <f>A336&amp;B336&amp;D337</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5025</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6453,14 +6453,14 @@
         <v>4</v>
       </c>
       <c r="C338">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D338">
-        <v>5055</v>
+        <v>5040</v>
       </c>
       <c r="E338" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5055</v>
+        <f>A337&amp;B337&amp;D338</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5040</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6471,14 +6471,14 @@
         <v>4</v>
       </c>
       <c r="C339">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D339">
-        <v>5070</v>
+        <v>5055</v>
       </c>
       <c r="E339" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5070</v>
+        <f>A338&amp;B338&amp;D339</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5055</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6489,14 +6489,14 @@
         <v>4</v>
       </c>
       <c r="C340">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D340">
-        <v>5085</v>
+        <v>5070</v>
       </c>
       <c r="E340" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5085</v>
+        <f>A339&amp;B339&amp;D340</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5070</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6507,14 +6507,14 @@
         <v>4</v>
       </c>
       <c r="C341">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D341">
-        <v>5100</v>
+        <v>5085</v>
       </c>
       <c r="E341" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5100</v>
+        <f>A340&amp;B340&amp;D341</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5085</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6525,14 +6525,14 @@
         <v>4</v>
       </c>
       <c r="C342">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D342">
-        <v>5115</v>
+        <v>5100</v>
       </c>
       <c r="E342" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5115</v>
+        <f>A341&amp;B341&amp;D342</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5100</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6543,14 +6543,14 @@
         <v>4</v>
       </c>
       <c r="C343">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D343">
-        <v>5130</v>
+        <v>5115</v>
       </c>
       <c r="E343" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5130</v>
+        <f>A342&amp;B342&amp;D343</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5115</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6561,14 +6561,14 @@
         <v>4</v>
       </c>
       <c r="C344">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D344">
-        <v>5145</v>
+        <v>5130</v>
       </c>
       <c r="E344" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5145</v>
+        <f>A343&amp;B343&amp;D344</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5130</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6579,14 +6579,14 @@
         <v>4</v>
       </c>
       <c r="C345">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D345">
-        <v>5160</v>
+        <v>5145</v>
       </c>
       <c r="E345" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5160</v>
+        <f>A344&amp;B344&amp;D345</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5145</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6597,14 +6597,14 @@
         <v>4</v>
       </c>
       <c r="C346">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D346">
-        <v>5175</v>
+        <v>5160</v>
       </c>
       <c r="E346" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5175</v>
+        <f>A345&amp;B345&amp;D346</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5160</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6615,14 +6615,14 @@
         <v>4</v>
       </c>
       <c r="C347">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D347">
-        <v>5190</v>
+        <v>5175</v>
       </c>
       <c r="E347" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5190</v>
+        <f>A346&amp;B346&amp;D347</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5175</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6633,14 +6633,14 @@
         <v>4</v>
       </c>
       <c r="C348">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D348">
-        <v>5205</v>
+        <v>5190</v>
       </c>
       <c r="E348" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5205</v>
+        <f>A347&amp;B347&amp;D348</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5190</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6651,14 +6651,14 @@
         <v>4</v>
       </c>
       <c r="C349">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D349">
-        <v>5220</v>
+        <v>5205</v>
       </c>
       <c r="E349" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5220</v>
+        <f>A348&amp;B348&amp;D349</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5205</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6669,14 +6669,14 @@
         <v>4</v>
       </c>
       <c r="C350">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D350">
-        <v>5235</v>
+        <v>5220</v>
       </c>
       <c r="E350" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5235</v>
+        <f>A349&amp;B349&amp;D350</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5220</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6687,14 +6687,14 @@
         <v>4</v>
       </c>
       <c r="C351">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D351">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="E351" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5250</v>
+        <f>A350&amp;B350&amp;D351</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5235</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6705,14 +6705,14 @@
         <v>4</v>
       </c>
       <c r="C352">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D352">
-        <v>5265</v>
+        <v>5250</v>
       </c>
       <c r="E352" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5265</v>
+        <f>A351&amp;B351&amp;D352</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5250</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6723,14 +6723,14 @@
         <v>4</v>
       </c>
       <c r="C353">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D353">
-        <v>5280</v>
+        <v>5265</v>
       </c>
       <c r="E353" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5280</v>
+        <f>A352&amp;B352&amp;D353</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5265</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6741,14 +6741,14 @@
         <v>4</v>
       </c>
       <c r="C354">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D354">
-        <v>5295</v>
+        <v>5280</v>
       </c>
       <c r="E354" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5295</v>
+        <f>A353&amp;B353&amp;D354</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5280</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6759,14 +6759,14 @@
         <v>4</v>
       </c>
       <c r="C355">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D355">
-        <v>5310</v>
+        <v>5295</v>
       </c>
       <c r="E355" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5310</v>
+        <f>A354&amp;B354&amp;D355</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5295</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6777,14 +6777,14 @@
         <v>4</v>
       </c>
       <c r="C356">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D356">
-        <v>5325</v>
+        <v>5310</v>
       </c>
       <c r="E356" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5325</v>
+        <f>A355&amp;B355&amp;D356</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5310</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6795,14 +6795,14 @@
         <v>4</v>
       </c>
       <c r="C357">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D357">
-        <v>5340</v>
+        <v>5325</v>
       </c>
       <c r="E357" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5340</v>
+        <f>A356&amp;B356&amp;D357</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5325</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6813,14 +6813,14 @@
         <v>4</v>
       </c>
       <c r="C358">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D358">
-        <v>5355</v>
+        <v>5340</v>
       </c>
       <c r="E358" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5355</v>
+        <f>A357&amp;B357&amp;D358</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5340</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6831,14 +6831,14 @@
         <v>4</v>
       </c>
       <c r="C359">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D359">
-        <v>5370</v>
+        <v>5355</v>
       </c>
       <c r="E359" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5370</v>
+        <f>A358&amp;B358&amp;D359</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5355</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6849,14 +6849,14 @@
         <v>4</v>
       </c>
       <c r="C360">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D360">
-        <v>5385</v>
+        <v>5370</v>
       </c>
       <c r="E360" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5385</v>
+        <f>A359&amp;B359&amp;D360</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5370</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6867,14 +6867,14 @@
         <v>4</v>
       </c>
       <c r="C361">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D361">
-        <v>5400</v>
+        <v>5385</v>
       </c>
       <c r="E361" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5400</v>
+        <f>A360&amp;B360&amp;D361</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5385</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6885,14 +6885,14 @@
         <v>4</v>
       </c>
       <c r="C362">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D362">
-        <v>5415</v>
+        <v>5400</v>
       </c>
       <c r="E362" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5415</v>
+        <f>A361&amp;B361&amp;D362</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5400</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6903,14 +6903,14 @@
         <v>4</v>
       </c>
       <c r="C363">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D363">
-        <v>5430</v>
+        <v>5415</v>
       </c>
       <c r="E363" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5430</v>
+        <f>A362&amp;B362&amp;D363</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5415</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6921,14 +6921,14 @@
         <v>4</v>
       </c>
       <c r="C364">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D364">
-        <v>5445</v>
+        <v>5430</v>
       </c>
       <c r="E364" t="str">
-        <f t="shared" si="5"/>
-        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5445</v>
+        <f>A363&amp;B363&amp;D364</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5430</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6939,13 +6939,31 @@
         <v>4</v>
       </c>
       <c r="C365">
+        <v>363</v>
+      </c>
+      <c r="D365">
+        <v>5445</v>
+      </c>
+      <c r="E365" t="str">
+        <f>A364&amp;B364&amp;D365</f>
+        <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5445</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>5</v>
+      </c>
+      <c r="B366" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366">
         <v>364</v>
       </c>
-      <c r="D365">
+      <c r="D366">
         <v>5460</v>
       </c>
-      <c r="E365" t="str">
-        <f t="shared" si="5"/>
+      <c r="E366" t="str">
+        <f>A365&amp;B365&amp;D366</f>
         <v>http://app06.ottawa.ca/cgi-bin/search/inspections/q.pl?ss=results_en;qt=fsi_s;sq_app_id=fsi;sq_keywords=;sq_field=fname;sq_fs_ftcd=;sq_fs_fwcd=;sort=fs_insp_sort%20asc%2Cscore%20desc;cookie=t;start=5460</v>
       </c>
     </row>
